--- a/data/input/absenteeism_data_1.xlsx
+++ b/data/input/absenteeism_data_1.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4818</v>
+        <v>82848</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ana Luiza Moraes</t>
+          <t>Brenda Fogaça</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,19 +497,19 @@
         <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45079</v>
+        <v>45091</v>
       </c>
       <c r="G2" t="n">
-        <v>8065.46</v>
+        <v>7565.74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>88096</v>
+        <v>26770</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nathan Correia</t>
+          <t>Benício Almeida</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,36 +519,36 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45091</v>
+        <v>45094</v>
       </c>
       <c r="G3" t="n">
-        <v>11285.18</v>
+        <v>10461.39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>95588</v>
+        <v>7245</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lucca Dias</t>
+          <t>Joaquim Barbosa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -558,21 +558,21 @@
         <v>45090</v>
       </c>
       <c r="G4" t="n">
-        <v>7601</v>
+        <v>4221.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>43876</v>
+        <v>1182</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Levi Moraes</t>
+          <t>Dra. Gabrielly Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,187 +581,187 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45092</v>
+        <v>45086</v>
       </c>
       <c r="G5" t="n">
-        <v>8378.76</v>
+        <v>2553.49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>76520</v>
+        <v>6668</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Yago Monteiro</t>
+          <t>Brenda Mendes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45097</v>
+        <v>45103</v>
       </c>
       <c r="G6" t="n">
-        <v>5461.6</v>
+        <v>3452.03</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10005</v>
+        <v>15395</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ana Lívia Cardoso</t>
+          <t>Mariana Cardoso</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45089</v>
+        <v>45094</v>
       </c>
       <c r="G7" t="n">
-        <v>6276.87</v>
+        <v>6182.78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31542</v>
+        <v>11813</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rafael Farias</t>
+          <t>Noah Peixoto</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="G8" t="n">
-        <v>5064.63</v>
+        <v>10184.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>47756</v>
+        <v>2313</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Benjamin Viana</t>
+          <t>Nicole da Cunha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45084</v>
+        <v>45088</v>
       </c>
       <c r="G9" t="n">
-        <v>9254.57</v>
+        <v>12216.11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>42036</v>
+        <v>5916</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ana Beatriz Peixoto</t>
+          <t>Augusto Lopes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45096</v>
+        <v>45089</v>
       </c>
       <c r="G10" t="n">
-        <v>3959.56</v>
+        <v>9068.209999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>76899</v>
+        <v>84538</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dr. Davi Lucas Freitas</t>
+          <t>João Guilherme Cavalcanti</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45097</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>12112.67</v>
+        <v>4772.14</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_1.xlsx
+++ b/data/input/absenteeism_data_1.xlsx
@@ -476,190 +476,190 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>82848</v>
+        <v>21431</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brenda Fogaça</t>
+          <t>Guilherme Dias</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45091</v>
+        <v>45087</v>
       </c>
       <c r="G2" t="n">
-        <v>7565.74</v>
+        <v>10696.09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26770</v>
+        <v>6660</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Benício Almeida</t>
+          <t>Bryan Santos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45094</v>
+        <v>45100</v>
       </c>
       <c r="G3" t="n">
-        <v>10461.39</v>
+        <v>6934.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7245</v>
+        <v>3107</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joaquim Barbosa</t>
+          <t>Cauê Silva</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="G4" t="n">
-        <v>4221.22</v>
+        <v>7135.52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1182</v>
+        <v>58259</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dra. Gabrielly Cunha</t>
+          <t>Sra. Alexia Viana</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45086</v>
+        <v>45082</v>
       </c>
       <c r="G5" t="n">
-        <v>2553.49</v>
+        <v>11689.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6668</v>
+        <v>46113</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Brenda Mendes</t>
+          <t>Nina da Luz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45103</v>
+        <v>45082</v>
       </c>
       <c r="G6" t="n">
-        <v>3452.03</v>
+        <v>8307.18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15395</v>
+        <v>51035</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mariana Cardoso</t>
+          <t>Marina Campos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45094</v>
+        <v>45082</v>
       </c>
       <c r="G7" t="n">
-        <v>6182.78</v>
+        <v>4618.28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11813</v>
+        <v>19254</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Noah Peixoto</t>
+          <t>Pedro Lucas Ramos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45097</v>
+        <v>45089</v>
       </c>
       <c r="G8" t="n">
-        <v>10184.33</v>
+        <v>8113.38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2313</v>
+        <v>17963</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nicole da Cunha</t>
+          <t>Cauê Costa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45088</v>
+        <v>45096</v>
       </c>
       <c r="G9" t="n">
-        <v>12216.11</v>
+        <v>4289.51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5916</v>
+        <v>16590</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Augusto Lopes</t>
+          <t>Camila da Rosa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45097</v>
       </c>
       <c r="G10" t="n">
-        <v>9068.209999999999</v>
+        <v>11991.27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>84538</v>
+        <v>25054</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>João Guilherme Cavalcanti</t>
+          <t>Dr. Antônio Silveira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45100</v>
+        <v>45091</v>
       </c>
       <c r="G11" t="n">
-        <v>4772.14</v>
+        <v>11525.92</v>
       </c>
     </row>
   </sheetData>
